--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/99/word_level_predictions_99.xlsx
@@ -2790,468 +2790,468 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G188" s="2" t="b">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12433,81 +12433,81 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>19</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B232" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C232" s="2" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D232" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E232" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12566,416 +12566,416 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
         <v>19</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>19</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>19</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/99/word_level_predictions_99.xlsx
@@ -2790,468 +2790,468 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>8</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" t="n">
         <v>3</v>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" t="n">
         <v>9</v>
       </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" t="n">
         <v>11</v>
       </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>12</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>13</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>14</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>15</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>16</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G188" s="2" t="b">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G231" t="b">
@@ -12457,57 +12457,57 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F232" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12566,416 +12566,416 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>19</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>19</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>19</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D235" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
